--- a/data/trans_dic/P32D_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P32D_R-Clase-trans_dic.xlsx
@@ -506,7 +506,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que consumió alcohol en las últimas 2 semanas que, en el último año, ha consumido alcohol en atracón más de una vez al mes (Binge drinking) (6/5 o más bebidas estándar para hombre/mujer, respectivamente; 5/4 si mayores de 65 años) en una misma ocasión (entre 4-6h) (tasa de respuesta: 99,36%)</t>
+          <t>Población que consumió alcohol en las últimas 2 semanas que, en el último año, ha consumido alcohol en exceso más de una vez al mes en una misma ocasión (Binge drinking) (tasa de respuesta: 99,36%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -986,7 +986,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que consumió alcohol en las últimas 2 semanas que, en el último año, ha consumido alcohol en atracón más de una vez al mes (Binge drinking) (6/5 o más bebidas estándar para hombre/mujer, respectivamente; 5/4 si mayores de 65 años) en una misma ocasión (entre 4-6h) (tasa de respuesta: 99,36%)</t>
+          <t>Población que consumió alcohol en las últimas 2 semanas que, en el último año, ha consumido alcohol en exceso más de una vez al mes en una misma ocasión (Binge drinking) (tasa de respuesta: 99,36%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/P32D_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P32D_R-Clase-trans_dic.xlsx
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.06745555468273577</v>
+        <v>0.06745555468273579</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>0.03722952299310398</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.04286001341037766</v>
+        <v>0.04071561953608674</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.01498494689220275</v>
+        <v>0.01416922840328426</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.0377106494507529</v>
+        <v>0.03774173813690292</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1039599865837151</v>
+        <v>0.1013484259118861</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.07599671597983751</v>
+        <v>0.07557997764959218</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.08337835659603568</v>
+        <v>0.08229699384472307</v>
       </c>
     </row>
     <row r="7">
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.06850064621270492</v>
+        <v>0.06850064621270494</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.09183420754142599</v>
+        <v>0.09183420754142597</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.07770068117386481</v>
+        <v>0.07770068117386479</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.04180414431722094</v>
+        <v>0.03975427737150548</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.05434502099315464</v>
+        <v>0.05303038335600408</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.05487720303142712</v>
+        <v>0.05495468380926545</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.108312759467112</v>
+        <v>0.109494055395854</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1571042949286322</v>
+        <v>0.1504432137103521</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1112595864878655</v>
+        <v>0.110930399468278</v>
       </c>
     </row>
     <row r="10">
@@ -677,10 +677,10 @@
         <v>0.1407813208827308</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.07729728947033397</v>
+        <v>0.07729728947033396</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.1301083837068748</v>
+        <v>0.1301083837068749</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.09615623207466398</v>
+        <v>0.09281572603137556</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.02766140666977865</v>
+        <v>0.0288517549027353</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.08855390675596125</v>
+        <v>0.09296956611014523</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2065802423831235</v>
+        <v>0.2026164199700088</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1600836114718644</v>
+        <v>0.1708134254159663</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1803361962292895</v>
+        <v>0.1846413093657155</v>
       </c>
     </row>
     <row r="13">
@@ -729,13 +729,13 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.07685175856690162</v>
+        <v>0.0768517585669016</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>0.06440024148812168</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.07314707970963932</v>
+        <v>0.07314707970963934</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.05717616150242109</v>
+        <v>0.05753707976921005</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.04035418832860447</v>
+        <v>0.03964192169433999</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.05594852733321079</v>
+        <v>0.05622450492999868</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1058319178483328</v>
+        <v>0.1045599545972105</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.109585314837562</v>
+        <v>0.1083703548950026</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.09450894814908713</v>
+        <v>0.09466147717367694</v>
       </c>
     </row>
     <row r="16">
@@ -784,7 +784,7 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.1662026825929076</v>
+        <v>0.1662026825929077</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>0.05577503913198766</v>
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1185089654646732</v>
+        <v>0.1163719338182278</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.02708126519508553</v>
+        <v>0.03186219160578282</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.09166236175135903</v>
+        <v>0.09071120836892133</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2446719657640314</v>
+        <v>0.2326131306489181</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.09226549705374244</v>
+        <v>0.1010664305506964</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1731197788570183</v>
+        <v>0.1705171862204465</v>
       </c>
     </row>
     <row r="19">
@@ -839,13 +839,13 @@
         </is>
       </c>
       <c r="C19" s="5" t="n">
-        <v>0.07179029207012737</v>
+        <v>0.07179029207012734</v>
       </c>
       <c r="D19" s="5" t="n">
         <v>0.1071349074029884</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.09295442310092188</v>
+        <v>0.09295442310092189</v>
       </c>
     </row>
     <row r="20">
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.0187807519056911</v>
+        <v>0.01925919251773435</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.05258423940397028</v>
+        <v>0.05373552165921804</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.05361163782428283</v>
+        <v>0.04912981814949276</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.1902112132161334</v>
+        <v>0.2025310253176763</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.1960446182996259</v>
+        <v>0.1877903804455798</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.1627007136323684</v>
+        <v>0.1512338420709116</v>
       </c>
     </row>
     <row r="22">
@@ -894,13 +894,13 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>0.0964086758698167</v>
+        <v>0.09640867586981673</v>
       </c>
       <c r="D22" s="5" t="n">
         <v>0.06893034555528831</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.08683999439916248</v>
+        <v>0.08683999439916247</v>
       </c>
     </row>
     <row r="23">
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.08047981083285299</v>
+        <v>0.08096948681829075</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.05217415481625186</v>
+        <v>0.05192486384622448</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.07632226011272421</v>
+        <v>0.07574734370373033</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.114917440995056</v>
+        <v>0.113774265730656</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.08852932547139074</v>
+        <v>0.08716529675271141</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.09956540955383522</v>
+        <v>0.1013220059668829</v>
       </c>
     </row>
     <row r="25">
@@ -1078,13 +1078,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>12984</v>
+        <v>12334</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>2607</v>
+        <v>2465</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>17985</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="7">
@@ -1095,13 +1095,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>31493</v>
+        <v>30702</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>13223</v>
+        <v>13151</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>39766</v>
+        <v>39250</v>
       </c>
     </row>
     <row r="8">
@@ -1150,13 +1150,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>9355</v>
+        <v>8896</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>7916</v>
+        <v>7725</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>20274</v>
+        <v>20303</v>
       </c>
     </row>
     <row r="11">
@@ -1167,13 +1167,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>24238</v>
+        <v>24503</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>22885</v>
+        <v>21915</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>41105</v>
+        <v>40983</v>
       </c>
     </row>
     <row r="12">
@@ -1222,13 +1222,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>21834</v>
+        <v>21076</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>1269</v>
+        <v>1324</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>24172</v>
+        <v>25377</v>
       </c>
     </row>
     <row r="15">
@@ -1239,13 +1239,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>46908</v>
+        <v>46008</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>7346</v>
+        <v>7839</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>49224</v>
+        <v>50400</v>
       </c>
     </row>
     <row r="16">
@@ -1294,13 +1294,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>31108</v>
+        <v>31304</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>9299</v>
+        <v>9135</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>43333</v>
+        <v>43547</v>
       </c>
     </row>
     <row r="19">
@@ -1311,13 +1311,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>57580</v>
+        <v>56888</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>25253</v>
+        <v>24973</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>73198</v>
+        <v>73316</v>
       </c>
     </row>
     <row r="20">
@@ -1366,13 +1366,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>29998</v>
+        <v>29457</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>4102</v>
+        <v>4826</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>37086</v>
+        <v>36701</v>
       </c>
     </row>
     <row r="23">
@@ -1383,13 +1383,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>61934</v>
+        <v>58882</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>13974</v>
+        <v>15307</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>70042</v>
+        <v>68989</v>
       </c>
     </row>
     <row r="24">
@@ -1438,13 +1438,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>1592</v>
+        <v>1632</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>6651</v>
+        <v>6796</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>11324</v>
+        <v>10377</v>
       </c>
     </row>
     <row r="27">
@@ -1455,13 +1455,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>16119</v>
+        <v>17163</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>24795</v>
+        <v>23751</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>34366</v>
+        <v>31944</v>
       </c>
     </row>
     <row r="28">
@@ -1510,13 +1510,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>131643</v>
+        <v>132444</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>45597</v>
+        <v>45379</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>191543</v>
+        <v>190100</v>
       </c>
     </row>
     <row r="31">
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>187974</v>
+        <v>186104</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>77369</v>
+        <v>76176</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>249876</v>
+        <v>254284</v>
       </c>
     </row>
     <row r="32">
